--- a/data/minfin/15_questions.xlsx
+++ b/data/minfin/15_questions.xlsx
@@ -251,9 +251,6 @@
     <t>Какая категория плательщиков страховых взносов не представляет расчет по страховым взносам в налоговые органы?</t>
   </si>
   <si>
-    <t>Индивидуальные предприниматели, не производящие выплаты физическим лицам уплачивают страховые взносы в виде фиксированного платежа исходя из размера своего дохода за налоговый период</t>
-  </si>
-  <si>
     <t>Индивидуальные предприниматели, не производящие выплаты физическим лицам (то есть не работодатели), не представляют в налоговые органы расчет по страховым взносам, так как уплачивают страховые взносы в размере, определяемом по формуле фиксированного платежа и исходя из размера своего дохода за налоговый период, поэтому налоговым органам информация о размере начисленных страховых взносов не требуется, учитывая, что размер фиксированного платежа и дохода плательщика имеется в налоговом органе</t>
   </si>
   <si>
@@ -276,13 +273,38 @@
   </si>
   <si>
     <t>15.12</t>
+  </si>
+  <si>
+    <r>
+      <t>Индивидуальные предприниматели, не производящие выплаты физическим лицам</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">, которые </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>уплачивают страховые взносы в виде фиксированного платежа исходя из размера своего дохода за налоговый период</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,13 +342,26 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -341,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -384,6 +419,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -696,7 +734,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -710,7 +748,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -844,7 +882,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>35</v>
@@ -894,7 +932,7 @@
     </row>
     <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A9" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>46</v>
@@ -913,7 +951,7 @@
     </row>
     <row r="10" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A10" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>50</v>
@@ -930,7 +968,7 @@
     </row>
     <row r="11" spans="1:12" s="5" customFormat="1" ht="94.5">
       <c r="A11" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>54</v>
@@ -947,7 +985,7 @@
     </row>
     <row r="12" spans="1:12" s="5" customFormat="1" ht="71.25" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>58</v>
@@ -964,19 +1002,19 @@
     </row>
     <row r="13" spans="1:12" s="5" customFormat="1" ht="174.75" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="5" customFormat="1">

--- a/data/minfin/15_questions.xlsx
+++ b/data/minfin/15_questions.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="I8" authorId="0">
+    <comment ref="I8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -159,9 +159,6 @@
     <t>Кто, Должен, Платить, Страховые взносы</t>
   </si>
   <si>
-    <t>Уменьшается уплачиваемая работодателем сумма страховых взносов с выплат работнику. При наступлении страхового случая страховое обеспечение работника, получавшего «серую» зарплату будет меньше, чем у работника, легально получавшего официальную зарплату</t>
-  </si>
-  <si>
     <t xml:space="preserve">Если работодатель выплачивает работнику «серую» зарплату (зарплату «в конверте»), сознательно занижает официальный размер выплат и иных начислений в пользу работника, то это приводит к уменьшению уплачиваемых работодателем страховых взносов с выплат работнику. 
 В связи с этим при наступлении страхового случая (выход на пенсию, временная нетрудоспособность и др.) страховое обеспечение работника, получавшего «серую» зарплату (зарплату «в конверте») будет меньше, чем у работника, легально получавшего официальную зарплату
 </t>
@@ -237,9 +234,6 @@
   </si>
   <si>
     <t>Какой расчетный/отчетный период по страховым взносам?</t>
-  </si>
-  <si>
-    <t>Расчетным периодом признается календарный год, отчетными периодами признаются первый квартал, полугодие и девять месяцев</t>
   </si>
   <si>
     <t>В соответствии со статьей 423 Налогового кодекса Российской Федерации расчетным периодом признается календарный год, отчетными периодами признаются первый квартал, полугодие и 9 месяцев</t>
@@ -299,12 +293,18 @@
       <t>уплачивают страховые взносы в виде фиксированного платежа исходя из размера своего дохода за налоговый период</t>
     </r>
   </si>
+  <si>
+    <t>Уменьшается уплачиваемая работодателем сумма страховых взносов с выплат работнику. При наступлении страхового случая страховое обесп\+ечение работника, получавшего «серую» зарплату будет меньше, чем у работника, легально получавшего официальную зарплату</t>
+  </si>
+  <si>
+    <t>Расчетным периодом признается календарный год, отчетными пер\+иодами признаются первый квартал, полугодие и девять месяцев</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,24 +734,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="2" customWidth="1"/>
@@ -769,7 +769,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -807,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="88.5" customHeight="1">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -825,7 +825,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -843,7 +843,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="87.75" customHeight="1">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -860,7 +860,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="173.25">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -877,216 +877,216 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="110.25">
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="63">
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="173.25">
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>45</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="78.75">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="94.5">
-      <c r="A11" s="8" t="s">
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="71.25" customHeight="1">
-      <c r="A12" s="8" t="s">
+      <c r="B13" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D13" s="9" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="174.75" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1">
+    </row>
+    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1">
+    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1">
+    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1">
+    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1">
+    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1">
+    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1">
+    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1">
+    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1">
+    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1">
+    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1">
+    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1">
+    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1">
+    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1">
+    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1">
+    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1">
+    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1">
+    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="D31" s="9"/>
     </row>

--- a/data/minfin/15_questions.xlsx
+++ b/data/minfin/15_questions.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
@@ -9,40 +9,16 @@
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Автор</author>
-  </authors>
-  <commentList>
-    <comment ref="I8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t>Изменилось содержание картинки</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
@@ -142,9 +118,6 @@
   </si>
   <si>
     <t>Кто должен платить страховые взносы?</t>
-  </si>
-  <si>
-    <t>Плательщиками страховых взносов признаются лица, являющиеся страхователями по соответствующим видам обязательного социального страхования</t>
   </si>
   <si>
     <t xml:space="preserve">Положениями статьи 419 Налогового кодекса Российской Федерации установлено, что плательщиками страховых взносов признаются следующие лица, являющиеся страхователями в соответствии с федеральными законами о конкретных видах обязательного социального страхования:
@@ -170,9 +143,6 @@
     <t>Зачем уплачивать страховые взносы по дополнительным тарифам?</t>
   </si>
   <si>
-    <t>Дополнительный тариф страховых взносов на обязательное пенсионное страхование применяется в целях досрочного назначения страховых пенсий по старости лицам, занятым на опасных и вредных условиях труда</t>
-  </si>
-  <si>
     <t>Для плательщиков-работодателей в отношении выплат и иных вознаграждений в пользу физических лиц, занятых на опасных и вредных видах работ, применяется дополнительный тариф страховых взносов на обязательное пенсионное страхование в целях досрочного назначения страховых пенсий по старости ранее достижения пенсионного возраста лицам, занятым на опасных и вредных условиях труда</t>
   </si>
   <si>
@@ -183,15 +153,6 @@
   </si>
   <si>
     <t>Для плательщиков-работодателей на обязательное пенсионное страхование, в зависимости от предельной величины базы для исчисления страховых взносов, установлен тариф двадцать два и десять процентов; на обязательное социальное страхование - две целых девять десятых процента; на обязательное медицинское страхование – пять целых одна десятая процента со всех выплат в пользу работника</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В 2017 - 2019 годах для плательщиков-работодателей применяются следующие тарифы страховых взносов:
-1) на обязательное пенсионное страхование:
-в пределах установленной предельной величины базы для исчисления страховых взносов на обязательное пенсионное страхование (в 2017 году 876 000 рублей) – 22%;
-свыше установленной предельной величины базы для исчисления страховых взносов на обязательное пенсионное страхование – 10%;
-2) на обязательное социальное страхование на случай временной нетрудоспособности и в связи с материнством в пределах установленной предельной величины базы для исчисления страховых взносов по данному виду страхования (в 2017 году 755 000 рублей) – 2,9%;
-3) на обязательное медицинское страхование - 5,1% со всех выплат в пользу работника
-</t>
   </si>
   <si>
     <t>Основные, Тарифы, Установлены, Для плательщиков, Страховые взносы</t>
@@ -299,12 +260,27 @@
   <si>
     <t>Расчетным периодом признается календарный год, отчетными пер\+иодами признаются первый квартал, полугодие и девять месяцев</t>
   </si>
+  <si>
+    <t>Плательщиками страховых взносов признаются л\+ица, являющиеся страхователями по соответствующим видам обязательного социального страхования</t>
+  </si>
+  <si>
+    <t>Дополнительный тариф страховых взносов на обязательное пенсионное страхование применяется в целях досрочного назначения страховых пенсий по старости лицам, з\+анятым на опасных и вредных условиях труда</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В 2017-2019 годах для плательщиков-работодателей применяются следующие тарифы страховых взносов:
+1) на обязательное пенсионное страхование:
+в пределах установленной предельной величины базы для исчисления страховых взносов на обязательное пенсионное страхование (в 2017 году – 876 000 рублей) – 22%;
+свыше установленной предельной величины базы для исчисления страховых взносов на обязательное пенсионное страхование – 10%;
+2) на обязательное социальное страхование на случай временной нетрудоспособности и в связи с материнством в пределах установленной предельной величины базы для исчисления страховых взносов по данному виду страхования (в 2017 году – 755 000 рублей) – 2,9%;
+3) на обязательное медицинское страхование - 5,1% со всех выплат в пользу работника
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,14 +308,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <charset val="204"/>
     </font>
     <font>
@@ -734,24 +702,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="7.42578125" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="2" customWidth="1"/>
@@ -769,7 +737,7 @@
     <col min="14" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>6</v>
       </c>
@@ -807,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="5" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="88.5" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
@@ -825,7 +793,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
@@ -843,7 +811,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:12" s="5" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="87.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -860,7 +828,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="173.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -868,231 +836,230 @@
         <v>31</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="5" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="110.25">
       <c r="A6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="5" customFormat="1" ht="63" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="63">
       <c r="A7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="5" customFormat="1" ht="173.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:12" s="5" customFormat="1" ht="173.25">
       <c r="A8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" s="5" customFormat="1" ht="47.25">
       <c r="A9" s="8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="5" customFormat="1" ht="78.75">
       <c r="A10" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="5" customFormat="1" ht="94.5">
+      <c r="A11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="5" customFormat="1" ht="71.25" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="5" customFormat="1" ht="174.75" customHeight="1">
+      <c r="A13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="5" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="B13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="5" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E13" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="5" customFormat="1" ht="174.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="5" customFormat="1">
       <c r="A14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" s="5" customFormat="1">
       <c r="A15" s="8"/>
       <c r="D15" s="9"/>
     </row>
-    <row r="16" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" s="5" customFormat="1">
       <c r="A16" s="8"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" s="5" customFormat="1">
       <c r="A17" s="8"/>
       <c r="D17" s="9"/>
     </row>
-    <row r="18" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" s="5" customFormat="1">
       <c r="A18" s="8"/>
       <c r="D18" s="9"/>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="5" customFormat="1">
       <c r="A19" s="8"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="5" customFormat="1">
       <c r="A20" s="8"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="5" customFormat="1">
       <c r="A21" s="8"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="5" customFormat="1">
       <c r="A22" s="8"/>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" s="5" customFormat="1">
       <c r="A23" s="8"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" s="5" customFormat="1">
       <c r="A24" s="8"/>
       <c r="D24" s="9"/>
     </row>
-    <row r="25" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" s="5" customFormat="1">
       <c r="A25" s="8"/>
       <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" s="5" customFormat="1">
       <c r="A26" s="8"/>
       <c r="D26" s="9"/>
     </row>
-    <row r="27" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" s="5" customFormat="1">
       <c r="A27" s="8"/>
       <c r="D27" s="9"/>
     </row>
-    <row r="28" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" s="5" customFormat="1">
       <c r="A28" s="8"/>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" s="5" customFormat="1">
       <c r="A29" s="8"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" s="5" customFormat="1">
       <c r="A30" s="8"/>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="5" customFormat="1">
       <c r="A31" s="8"/>
       <c r="D31" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>